--- a/biology/Zoologie/Grimmy/Grimmy.xlsx
+++ b/biology/Zoologie/Grimmy/Grimmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grimmy (en anglais, Mother Goose &amp; Grimm) est un comic strip humoristique créé par l'américain Mike Peters et qui fit sa première apparition dans les journaux le 1er octobre 1984. Aujourd'hui, il est publié dans plus de 800 journaux, parmi lesquels le New York Daily News, le Washington Post et le Los Angeles Herald Examiner. En France, on le retrouve dans Télé Star et dans
@@ -514,9 +526,11 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Grimmy est un Bull Terrier[1], race connue pour son incapacité à obéir aux ordres. Grimmy est un anti-héros au pelage jaune, sale, vulgaire et menteur. Ses activités favorites? Courir après le facteur, boire l'eau des toilettes, dévorer ce qu'il y a dans les poubelles ou encore martyriser son entourage. On peut le considérer comme le Garfield des chiens (mais en plus sadique et cynique!)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Grimmy est un Bull Terrier, race connue pour son incapacité à obéir aux ordres. Grimmy est un anti-héros au pelage jaune, sale, vulgaire et menteur. Ses activités favorites? Courir après le facteur, boire l'eau des toilettes, dévorer ce qu'il y a dans les poubelles ou encore martyriser son entourage. On peut le considérer comme le Garfield des chiens (mais en plus sadique et cynique!)
 Attila est un petit chat violet peureux qui passe ses journées à dormir en boule. C'est le souffre-douleur principal de Grimmy mais il le lui rend bien aussi.
 Sumo est un énorme chat violet très simplet.
 Jambon est un cochon rose qui marche sur ses pattes de derrière et arbore un magnifique nœud papillon bleu et jaune. Il n'est pas très malin et a un grave problème d'élocution.
@@ -549,7 +563,9 @@
           <t>Liste des albums parus en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1 La routine (05/1991)  (ISBN 2-205-04045-6) Dargaud
 2 Faudrait peut-être que je me lave les oreilles (10/1991)  (ISBN 2-205-04571-7) Dargaud
